--- a/WebApp.Client/src/assets/templates/FileMau_D03_TS.xlsx
+++ b/WebApp.Client/src/assets/templates/FileMau_D03_TS.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ADC5F6-FA15-4355-AF10-08A8958E11BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFB2DE6-9428-4973-8A5B-339A325DD87D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="D03-TS" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>Mẫu D03-TS</t>
   </si>
   <si>
-    <t>Mã đơn vị/Điểm thu:  BI0113G</t>
-  </si>
-  <si>
     <t>MS thuế: 1602187678</t>
   </si>
   <si>
@@ -50,22 +47,7 @@
     <t>DANH SÁCH NGƯỜI CHỈ THAM GIA BHYT</t>
   </si>
   <si>
-    <t>Số 15 tháng 12 năm  2024</t>
-  </si>
-  <si>
-    <t>Đối tượng tham gia: Hộ gia đình</t>
-  </si>
-  <si>
-    <t>Mã đối tượng: GD</t>
-  </si>
-  <si>
-    <t>Lương cơ sở: 2340000 đồng</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nguồn đóng: </t>
-  </si>
-  <si>
-    <t>Tỷ lệ NSNN hỗ trợ quy định: 0 %</t>
   </si>
   <si>
     <t>STT</t>
@@ -188,6 +170,24 @@
   </si>
   <si>
     <t>NGUYỄN HUY PHÚC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã đơn vị/Điểm thu:  </t>
+  </si>
+  <si>
+    <t>Số...tháng...năm...</t>
+  </si>
+  <si>
+    <t>Đối tượng tham gia:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mã đối tượng: </t>
+  </si>
+  <si>
+    <t>Lương cơ sở:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tỷ lệ NSNN hỗ trợ quy định: </t>
   </si>
 </sst>
 </file>
@@ -366,95 +366,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -783,29 +780,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="L5" sqref="L5:N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="1" customWidth="1"/>
-    <col min="7" max="9" width="15.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.5703125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="256" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="26" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="3" customWidth="1"/>
+    <col min="7" max="9" width="15.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="15.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="9.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="17.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="3" customWidth="1"/>
+    <col min="18" max="256" width="9.140625" style="1" customWidth="1"/>
     <col min="257" max="257" width="4.5703125" style="1" customWidth="1"/>
     <col min="258" max="258" width="31.140625" style="1" customWidth="1"/>
     <col min="259" max="259" width="11.7109375" style="1" customWidth="1"/>
@@ -1502,55 +1500,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="18" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
     </row>
     <row r="3" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
+      <c r="E3" s="28"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
     </row>
     <row r="4" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
@@ -1558,798 +1556,834 @@
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="19" t="s">
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+    </row>
+    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-    </row>
-    <row r="5" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22" t="s">
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+    </row>
+    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+    </row>
+    <row r="8" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="26"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-    </row>
-    <row r="6" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="24" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+    </row>
+    <row r="10" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-    </row>
-    <row r="7" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-    </row>
-    <row r="8" spans="1:17" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="25" t="s">
+      <c r="B10" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="25" t="s">
+      <c r="D10" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="25"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-    </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="26" t="s">
+      <c r="E10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="26" t="s">
+      <c r="F10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-    </row>
-    <row r="10" spans="1:17" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="G10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="I10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="J10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="K10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="L10" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="M10" s="18"/>
+      <c r="N10" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="O10" s="18"/>
+      <c r="P10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="29" t="s">
+      <c r="Q10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="M11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="28" t="s">
+      <c r="N11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28" t="s">
+      <c r="O11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O10" s="28"/>
-      <c r="P10" s="27" t="s">
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="Q10" s="27" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="11" t="s">
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5">
+        <v>4</v>
+      </c>
+      <c r="G12" s="5">
+        <v>5</v>
+      </c>
+      <c r="H12" s="5">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5">
+        <v>7</v>
+      </c>
+      <c r="J12" s="5">
+        <v>8</v>
+      </c>
+      <c r="K12" s="5">
+        <v>9</v>
+      </c>
+      <c r="L12" s="5">
+        <v>10</v>
+      </c>
+      <c r="M12" s="5">
+        <v>11</v>
+      </c>
+      <c r="N12" s="5">
+        <v>12</v>
+      </c>
+      <c r="O12" s="5">
+        <v>13</v>
+      </c>
+      <c r="P12" s="5">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="B13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="N11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="10" t="s">
+      <c r="C13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="B14" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="11">
-        <v>1</v>
-      </c>
-      <c r="D12" s="11">
-        <v>2</v>
-      </c>
-      <c r="E12" s="11">
-        <v>3</v>
-      </c>
-      <c r="F12" s="11">
-        <v>4</v>
-      </c>
-      <c r="G12" s="11">
-        <v>5</v>
-      </c>
-      <c r="H12" s="11">
-        <v>6</v>
-      </c>
-      <c r="I12" s="11">
-        <v>7</v>
-      </c>
-      <c r="J12" s="11">
-        <v>8</v>
-      </c>
-      <c r="K12" s="11">
-        <v>9</v>
-      </c>
-      <c r="L12" s="11">
-        <v>10</v>
-      </c>
-      <c r="M12" s="11">
-        <v>11</v>
-      </c>
-      <c r="N12" s="11">
-        <v>12</v>
-      </c>
-      <c r="O12" s="11">
-        <v>13</v>
-      </c>
-      <c r="P12" s="11">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="B16" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="C16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P13" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q13" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="C19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P14" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q14" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B21" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="12" t="s">
+      <c r="C23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q23" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P17" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="L27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q18" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="L28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="O20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="P20" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P21" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q21" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="34" spans="12:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="N22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="O22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="P22" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q22" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="L27" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="L28" s="16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L33" s="15" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:K5"/>
+    <mergeCell ref="L5:N9"/>
+    <mergeCell ref="G6:K6"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="I9:K9"/>
     <mergeCell ref="P10:P11"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="L10:M10"/>
@@ -2365,23 +2399,6 @@
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="K10:K11"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:K5"/>
-    <mergeCell ref="L5:N9"/>
-    <mergeCell ref="G6:K6"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="L3:N3"/>
   </mergeCells>
   <pageMargins left="0.41" right="0.38" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="15" orientation="landscape" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
